--- a/test_d.xlsx
+++ b/test_d.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="90" windowWidth="9540" windowHeight="4515"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Apples</t>
   </si>
@@ -33,6 +33,15 @@
   <si>
     <t xml:space="preserve">A </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -81,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -95,6 +104,7 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -169,11 +179,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -462,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -473,58 +478,69 @@
     <col min="1" max="1" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="1">
-        <v>42104.088194444441</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>16</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1">
-        <v>42104.757372685184</v>
+        <v>42104.088194444441</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1">
-        <v>42104.111643518518</v>
+        <v>42104.757372685184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="4">
-        <v>1</v>
+      <c r="A4" s="1">
+        <v>42104.111643518518</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
     </row>
